--- a/Snake.xlsx
+++ b/Snake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ervin\OneDrive\Рабочий стол\Work_With_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BB8B04-E2BE-4E28-9077-0ADF585C778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768C404-E654-42F0-91B1-4C2EB5A8C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="372" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
+  <si>
+    <t>l</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,15 +353,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:K8"/>
+  <dimension ref="C4:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -367,17 +386,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>7</v>
       </c>
@@ -393,6 +418,44 @@
       <c r="K8" t="e">
         <f>-L8-M8=M8:N8=N8=O8=F3</f>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Snake.xlsx
+++ b/Snake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ervin\OneDrive\Рабочий стол\Work_With_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7768C404-E654-42F0-91B1-4C2EB5A8C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B1F4A-7032-4979-AC1A-81A32ECE75A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="372" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -356,63 +363,63 @@
   <dimension ref="C4:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="G7">
+      <c r="G7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="G8">
+      <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>9</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" t="e">
@@ -421,40 +428,40 @@
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
